--- a/SchedulingData/static7/pso/scheduling1_5.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_5.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>52.16</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.464</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.3</v>
+        <v>57.32</v>
       </c>
       <c r="E3" t="n">
-        <v>26.64</v>
+        <v>26.928</v>
       </c>
     </row>
     <row r="4">
@@ -504,36 +504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>81.64</v>
+        <v>48.3</v>
       </c>
       <c r="E4" t="n">
-        <v>26.976</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>81.64</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>152</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>22.56</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="6">
@@ -542,55 +542,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52.16</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>106.16</v>
+        <v>130.58</v>
       </c>
       <c r="E6" t="n">
-        <v>22.684</v>
+        <v>20.772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.3</v>
+        <v>57.32</v>
       </c>
       <c r="D7" t="n">
-        <v>99.23999999999999</v>
+        <v>127.82</v>
       </c>
       <c r="E7" t="n">
-        <v>23.376</v>
+        <v>23.008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>130.58</v>
       </c>
       <c r="D8" t="n">
-        <v>62.1</v>
+        <v>177.24</v>
       </c>
       <c r="E8" t="n">
-        <v>26.48</v>
+        <v>17.236</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>68.28</v>
+        <v>56.4</v>
       </c>
       <c r="E9" t="n">
-        <v>24.852</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>152</v>
+        <v>48.3</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7</v>
+        <v>114.3</v>
       </c>
       <c r="E10" t="n">
-        <v>17.62</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62.1</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>143.14</v>
+        <v>129.54</v>
       </c>
       <c r="E11" t="n">
-        <v>21.956</v>
+        <v>23.316</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>68.28</v>
+        <v>56.4</v>
       </c>
       <c r="D12" t="n">
-        <v>127.98</v>
+        <v>124.08</v>
       </c>
       <c r="E12" t="n">
-        <v>21.492</v>
+        <v>19.912</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>129.54</v>
       </c>
       <c r="D13" t="n">
-        <v>55.6</v>
+        <v>174.6</v>
       </c>
       <c r="E13" t="n">
-        <v>25.14</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>143.14</v>
+        <v>127.82</v>
       </c>
       <c r="D14" t="n">
-        <v>213.36</v>
+        <v>211.26</v>
       </c>
       <c r="E14" t="n">
-        <v>18.524</v>
+        <v>19.264</v>
       </c>
     </row>
     <row r="15">
@@ -713,36 +713,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>212.7</v>
+        <v>114.3</v>
       </c>
       <c r="D15" t="n">
-        <v>261.8</v>
+        <v>164.1</v>
       </c>
       <c r="E15" t="n">
-        <v>13.84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>261.8</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>314.5</v>
+        <v>92.92</v>
       </c>
       <c r="E16" t="n">
-        <v>11.2</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="17">
@@ -751,17 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>99.23999999999999</v>
+        <v>92.92</v>
       </c>
       <c r="D17" t="n">
-        <v>175.94</v>
+        <v>145.82</v>
       </c>
       <c r="E17" t="n">
-        <v>20.296</v>
+        <v>22.188</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>106.16</v>
+        <v>177.24</v>
       </c>
       <c r="D18" t="n">
-        <v>170.46</v>
+        <v>219.4</v>
       </c>
       <c r="E18" t="n">
-        <v>20.324</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>127.98</v>
+        <v>124.08</v>
       </c>
       <c r="D19" t="n">
-        <v>177.72</v>
+        <v>190.78</v>
       </c>
       <c r="E19" t="n">
-        <v>18.148</v>
+        <v>16.832</v>
       </c>
     </row>
     <row r="20">
@@ -808,93 +808,93 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>55.6</v>
+        <v>174.6</v>
       </c>
       <c r="D20" t="n">
-        <v>111.4</v>
+        <v>271.64</v>
       </c>
       <c r="E20" t="n">
-        <v>20.2</v>
+        <v>17.816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>177.72</v>
+        <v>164.1</v>
       </c>
       <c r="D21" t="n">
-        <v>224.38</v>
+        <v>239.32</v>
       </c>
       <c r="E21" t="n">
-        <v>14.612</v>
+        <v>17.568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>175.94</v>
+        <v>219.4</v>
       </c>
       <c r="D22" t="n">
-        <v>286.04</v>
+        <v>298.9</v>
       </c>
       <c r="E22" t="n">
-        <v>14.356</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>213.36</v>
+        <v>190.78</v>
       </c>
       <c r="D23" t="n">
-        <v>268.66</v>
+        <v>252.42</v>
       </c>
       <c r="E23" t="n">
-        <v>14.624</v>
+        <v>12.308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>286.04</v>
+        <v>239.32</v>
       </c>
       <c r="D24" t="n">
-        <v>337.14</v>
+        <v>310.02</v>
       </c>
       <c r="E24" t="n">
-        <v>10.876</v>
+        <v>12.628</v>
       </c>
     </row>
     <row r="25">
@@ -903,17 +903,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>111.4</v>
+        <v>271.64</v>
       </c>
       <c r="D25" t="n">
-        <v>193.72</v>
+        <v>317.74</v>
       </c>
       <c r="E25" t="n">
-        <v>16.548</v>
+        <v>14.336</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>193.72</v>
+        <v>317.74</v>
       </c>
       <c r="D26" t="n">
-        <v>240.64</v>
+        <v>364.34</v>
       </c>
       <c r="E26" t="n">
-        <v>13.476</v>
+        <v>10.816</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>337.14</v>
+        <v>145.82</v>
       </c>
       <c r="D27" t="n">
-        <v>414.74</v>
+        <v>256.12</v>
       </c>
       <c r="E27" t="n">
-        <v>6.736</v>
+        <v>16.248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>240.64</v>
+        <v>211.26</v>
       </c>
       <c r="D28" t="n">
-        <v>295.1</v>
+        <v>271.8</v>
       </c>
       <c r="E28" t="n">
-        <v>9.16</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="29">
@@ -979,74 +979,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>224.38</v>
+        <v>252.42</v>
       </c>
       <c r="D29" t="n">
-        <v>281.48</v>
+        <v>304.24</v>
       </c>
       <c r="E29" t="n">
-        <v>10.532</v>
+        <v>9.236000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>295.1</v>
+        <v>298.9</v>
       </c>
       <c r="D30" t="n">
-        <v>348.74</v>
+        <v>350.24</v>
       </c>
       <c r="E30" t="n">
-        <v>5.416</v>
+        <v>6.296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>170.46</v>
+        <v>271.8</v>
       </c>
       <c r="D31" t="n">
-        <v>236.66</v>
+        <v>346.5</v>
       </c>
       <c r="E31" t="n">
-        <v>16.324</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>281.48</v>
+        <v>310.02</v>
       </c>
       <c r="D32" t="n">
-        <v>332.88</v>
+        <v>386.04</v>
       </c>
       <c r="E32" t="n">
-        <v>7.012</v>
+        <v>8.156000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>414.74</v>
+        <v>256.12</v>
       </c>
       <c r="D33" t="n">
-        <v>467.9</v>
+        <v>325.36</v>
       </c>
       <c r="E33" t="n">
-        <v>3.04</v>
+        <v>12.904</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>268.66</v>
+        <v>304.24</v>
       </c>
       <c r="D34" t="n">
-        <v>311.26</v>
+        <v>372.88</v>
       </c>
       <c r="E34" t="n">
-        <v>11.984</v>
+        <v>4.972</v>
       </c>
     </row>
     <row r="35">
@@ -1093,112 +1093,112 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>332.88</v>
+        <v>372.88</v>
       </c>
       <c r="D35" t="n">
-        <v>375</v>
+        <v>437.38</v>
       </c>
       <c r="E35" t="n">
-        <v>3.94</v>
+        <v>1.612</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>236.66</v>
+        <v>437.38</v>
       </c>
       <c r="D36" t="n">
-        <v>277.6</v>
+        <v>530.66</v>
       </c>
       <c r="E36" t="n">
-        <v>13.36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>348.74</v>
+        <v>350.24</v>
       </c>
       <c r="D37" t="n">
-        <v>421.34</v>
+        <v>406.2</v>
       </c>
       <c r="E37" t="n">
-        <v>1.256</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>421.34</v>
+        <v>325.36</v>
       </c>
       <c r="D38" t="n">
-        <v>520.33</v>
+        <v>386.76</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>9.384</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>311.26</v>
+        <v>530.66</v>
       </c>
       <c r="D39" t="n">
-        <v>382.4</v>
+        <v>609.12</v>
       </c>
       <c r="E39" t="n">
-        <v>8.960000000000001</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>314.5</v>
+        <v>386.76</v>
       </c>
       <c r="D40" t="n">
-        <v>380.32</v>
+        <v>466.22</v>
       </c>
       <c r="E40" t="n">
-        <v>6.728</v>
+        <v>5.068</v>
       </c>
     </row>
     <row r="41">
@@ -1207,36 +1207,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>520.33</v>
+        <v>364.34</v>
       </c>
       <c r="D41" t="n">
-        <v>599.91</v>
+        <v>412.82</v>
       </c>
       <c r="E41" t="n">
-        <v>26.172</v>
+        <v>8.087999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>380.32</v>
+        <v>406.2</v>
       </c>
       <c r="D42" t="n">
-        <v>455.82</v>
+        <v>488.16</v>
       </c>
       <c r="E42" t="n">
-        <v>2.808</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -1249,32 +1249,32 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>277.6</v>
+        <v>488.16</v>
       </c>
       <c r="D43" t="n">
-        <v>338.1</v>
+        <v>573.66</v>
       </c>
       <c r="E43" t="n">
-        <v>10.44</v>
+        <v>27.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>599.91</v>
+        <v>346.5</v>
       </c>
       <c r="D44" t="n">
-        <v>668.51</v>
+        <v>389.72</v>
       </c>
       <c r="E44" t="n">
-        <v>22.892</v>
+        <v>9.747999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>375</v>
+        <v>609.12</v>
       </c>
       <c r="D45" t="n">
-        <v>435.32</v>
+        <v>681.22</v>
       </c>
       <c r="E45" t="n">
-        <v>1.028</v>
+        <v>22.224</v>
       </c>
     </row>
     <row r="46">
@@ -1302,212 +1302,212 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>435.32</v>
+        <v>681.22</v>
       </c>
       <c r="D46" t="n">
-        <v>515.0599999999999</v>
+        <v>732.88</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>18.688</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>455.82</v>
+        <v>573.66</v>
       </c>
       <c r="D47" t="n">
-        <v>551.7</v>
+        <v>657.26</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>551.7</v>
+        <v>389.72</v>
       </c>
       <c r="D48" t="n">
-        <v>610.42</v>
+        <v>450.08</v>
       </c>
       <c r="E48" t="n">
-        <v>26.808</v>
+        <v>5.332</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>382.4</v>
+        <v>412.82</v>
       </c>
       <c r="D49" t="n">
-        <v>454.56</v>
+        <v>481.72</v>
       </c>
       <c r="E49" t="n">
-        <v>6.364</v>
+        <v>4.308</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>454.56</v>
+        <v>481.72</v>
       </c>
       <c r="D50" t="n">
-        <v>548.2</v>
+        <v>519.42</v>
       </c>
       <c r="E50" t="n">
-        <v>2.1</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>515.0599999999999</v>
+        <v>519.42</v>
       </c>
       <c r="D51" t="n">
-        <v>580.64</v>
+        <v>592.98</v>
       </c>
       <c r="E51" t="n">
-        <v>25.632</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>548.2</v>
+        <v>466.22</v>
       </c>
       <c r="D52" t="n">
-        <v>616</v>
+        <v>506.64</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>2.156</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>616</v>
+        <v>592.98</v>
       </c>
       <c r="D53" t="n">
-        <v>679.8</v>
+        <v>658.6799999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>26.28</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>338.1</v>
+        <v>450.08</v>
       </c>
       <c r="D54" t="n">
-        <v>413.96</v>
+        <v>504.08</v>
       </c>
       <c r="E54" t="n">
-        <v>6.464</v>
+        <v>1.552</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>413.96</v>
+        <v>504.08</v>
       </c>
       <c r="D55" t="n">
-        <v>462.18</v>
+        <v>577.78</v>
       </c>
       <c r="E55" t="n">
-        <v>2.772</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>462.18</v>
+        <v>658.6799999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>548.14</v>
+        <v>715.02</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>23.076</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1515,32 +1515,32 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>548.14</v>
+        <v>386.04</v>
       </c>
       <c r="D57" t="n">
-        <v>594.0599999999999</v>
+        <v>431.36</v>
       </c>
       <c r="E57" t="n">
-        <v>27.088</v>
+        <v>5.244</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>610.42</v>
+        <v>577.78</v>
       </c>
       <c r="D58" t="n">
-        <v>657.86</v>
+        <v>641.58</v>
       </c>
       <c r="E58" t="n">
-        <v>23.684</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="59">
@@ -1549,41 +1549,41 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>594.0599999999999</v>
+        <v>657.26</v>
       </c>
       <c r="D59" t="n">
-        <v>632.64</v>
+        <v>720.1799999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>24.36</v>
+        <v>20.108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>632.64</v>
+        <v>431.36</v>
       </c>
       <c r="D60" t="n">
-        <v>687.3</v>
+        <v>485.4</v>
       </c>
       <c r="E60" t="n">
-        <v>21.504</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>467.9</v>
+        <v>485.4</v>
       </c>
       <c r="D61" t="n">
-        <v>563.3200000000001</v>
+        <v>563.24</v>
       </c>
       <c r="E61" t="n">
         <v>30</v>
@@ -1606,17 +1606,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>563.3200000000001</v>
+        <v>506.64</v>
       </c>
       <c r="D62" t="n">
-        <v>638.22</v>
+        <v>584.13</v>
       </c>
       <c r="E62" t="n">
-        <v>24.68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>638.22</v>
+        <v>584.13</v>
       </c>
       <c r="D63" t="n">
-        <v>698.08</v>
+        <v>647.23</v>
       </c>
       <c r="E63" t="n">
-        <v>22.304</v>
+        <v>25.86</v>
       </c>
     </row>
   </sheetData>
